--- a/biology/Zoologie/Goéland_d'Audouin/Goéland_d'Audouin.xlsx
+++ b/biology/Zoologie/Goéland_d'Audouin/Goéland_d'Audouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_d%27Audouin</t>
+          <t>Goéland_d'Audouin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyaetus audouinii
 Le Goéland d'Audouin (Ichthyaetus audouinii) est une espèce d'oiseaux de la famille des Laridae. Le nom de cette espèce commémore le zoologiste français Victor Audouin (1797-1841). Comme beaucoup d'autres mouettes et goélands, il était jusqu'à récemment classé dans le genre Larus. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_d%27Audouin</t>
+          <t>Goéland_d'Audouin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre  en période de reproduction, essentiellement en mer Méditerranée  et depuis peu de temps en Atlantique,  au sud du Portugal. Les principales colonies se rencontrent dans le delta de l'Ebre et aux Îles Zaffarines (à proximité du Maroc). En France, entre 50 et 100 couples nichent, uniquement en Corse.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_d%27Audouin</t>
+          <t>Goéland_d'Audouin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à de nombreuses autres espèces de goélands, le goéland d'Audouin n'est pas charognard et se nourrit uniquement de poissons.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_d%27Audouin</t>
+          <t>Goéland_d'Audouin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce autrefois très rare, le goéland d'Audouin a vu sa population augmenter et s'établir aux alentours de 19 000 couples. 
 </t>
